--- a/race_means_data1.xlsx
+++ b/race_means_data1.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>59.58</v>
+        <v>59.601</v>
       </c>
       <c r="C2">
-        <v>0.612</v>
+        <v>0.576</v>
       </c>
       <c r="D2">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E2">
-        <v>58.379</v>
+        <v>58.472</v>
       </c>
       <c r="F2">
-        <v>60.781</v>
+        <v>60.731</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>62.73</v>
+        <v>62.554</v>
       </c>
       <c r="C3">
-        <v>0.304</v>
+        <v>0.281</v>
       </c>
       <c r="D3">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>62.133</v>
+        <v>62.003</v>
       </c>
       <c r="F3">
-        <v>63.327</v>
+        <v>63.104</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>62.014</v>
+        <v>62.152</v>
       </c>
       <c r="C4">
-        <v>0.597</v>
+        <v>0.552</v>
       </c>
       <c r="D4">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E4">
-        <v>60.843</v>
+        <v>61.069</v>
       </c>
       <c r="F4">
-        <v>63.186</v>
+        <v>63.235</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>61.975</v>
+        <v>61.642</v>
       </c>
       <c r="C5">
-        <v>1.03</v>
+        <v>0.858</v>
       </c>
       <c r="D5">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E5">
-        <v>59.956</v>
+        <v>59.959</v>
       </c>
       <c r="F5">
-        <v>63.995</v>
+        <v>63.325</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>62.11</v>
+        <v>61.999</v>
       </c>
       <c r="C6">
-        <v>0.245</v>
+        <v>0.226</v>
       </c>
       <c r="D6">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E6">
-        <v>61.63</v>
+        <v>61.555</v>
       </c>
       <c r="F6">
-        <v>62.59</v>
+        <v>62.443</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>109.471</v>
+        <v>109.75</v>
       </c>
       <c r="C7">
-        <v>1.079</v>
+        <v>1.011</v>
       </c>
       <c r="D7">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E7">
-        <v>107.355</v>
+        <v>107.767</v>
       </c>
       <c r="F7">
-        <v>111.588</v>
+        <v>111.733</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>113.53</v>
+        <v>113.831</v>
       </c>
       <c r="C8">
-        <v>0.536</v>
+        <v>0.493</v>
       </c>
       <c r="D8">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E8">
-        <v>112.478</v>
+        <v>112.865</v>
       </c>
       <c r="F8">
-        <v>114.582</v>
+        <v>114.798</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>110.319</v>
+        <v>111.037</v>
       </c>
       <c r="C9">
-        <v>1.053</v>
+        <v>0.97</v>
       </c>
       <c r="D9">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>108.254</v>
+        <v>109.134</v>
       </c>
       <c r="F9">
-        <v>112.383</v>
+        <v>112.939</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>109.627</v>
+        <v>109.199</v>
       </c>
       <c r="C10">
-        <v>1.815</v>
+        <v>1.507</v>
       </c>
       <c r="D10">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E10">
-        <v>106.067</v>
+        <v>106.244</v>
       </c>
       <c r="F10">
-        <v>113.186</v>
+        <v>112.155</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>108.749</v>
+        <v>109.174</v>
       </c>
       <c r="C11">
-        <v>0.431</v>
+        <v>0.398</v>
       </c>
       <c r="D11">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E11">
-        <v>107.903</v>
+        <v>108.394</v>
       </c>
       <c r="F11">
-        <v>109.594</v>
+        <v>109.954</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>127.082</v>
+        <v>127.408</v>
       </c>
       <c r="C12">
-        <v>1.395</v>
+        <v>1.295</v>
       </c>
       <c r="D12">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E12">
-        <v>124.345</v>
+        <v>124.867</v>
       </c>
       <c r="F12">
-        <v>129.818</v>
+        <v>129.948</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>133.772</v>
+        <v>134.185</v>
       </c>
       <c r="C13">
-        <v>0.6929999999999999</v>
+        <v>0.631</v>
       </c>
       <c r="D13">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E13">
-        <v>132.412</v>
+        <v>132.947</v>
       </c>
       <c r="F13">
-        <v>135.132</v>
+        <v>135.423</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>132.717</v>
+        <v>133.408</v>
       </c>
       <c r="C14">
-        <v>1.361</v>
+        <v>1.243</v>
       </c>
       <c r="D14">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E14">
-        <v>130.048</v>
+        <v>130.97</v>
       </c>
       <c r="F14">
-        <v>135.386</v>
+        <v>135.845</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>131.759</v>
+        <v>131.467</v>
       </c>
       <c r="C15">
-        <v>2.346</v>
+        <v>1.931</v>
       </c>
       <c r="D15">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E15">
-        <v>127.157</v>
+        <v>127.68</v>
       </c>
       <c r="F15">
-        <v>136.361</v>
+        <v>135.254</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>132.422</v>
+        <v>132.791</v>
       </c>
       <c r="C16">
-        <v>0.5570000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="D16">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E16">
-        <v>131.329</v>
+        <v>131.792</v>
       </c>
       <c r="F16">
-        <v>133.515</v>
+        <v>133.79</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>97.634</v>
+        <v>97.572</v>
       </c>
       <c r="C17">
-        <v>1.498</v>
+        <v>1.409</v>
       </c>
       <c r="D17">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E17">
-        <v>94.697</v>
+        <v>94.80800000000001</v>
       </c>
       <c r="F17">
-        <v>100.571</v>
+        <v>100.335</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>104.278</v>
+        <v>104.263</v>
       </c>
       <c r="C18">
-        <v>0.744</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D18">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E18">
-        <v>102.818</v>
+        <v>102.916</v>
       </c>
       <c r="F18">
-        <v>105.738</v>
+        <v>105.61</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>99.732</v>
+        <v>100.008</v>
       </c>
       <c r="C19">
-        <v>1.461</v>
+        <v>1.352</v>
       </c>
       <c r="D19">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>96.867</v>
+        <v>97.357</v>
       </c>
       <c r="F19">
-        <v>102.597</v>
+        <v>102.66</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>96.497</v>
+        <v>98.601</v>
       </c>
       <c r="C20">
-        <v>2.518</v>
+        <v>2.1</v>
       </c>
       <c r="D20">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>91.557</v>
+        <v>94.482</v>
       </c>
       <c r="F20">
-        <v>101.436</v>
+        <v>102.72</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>99.883</v>
+        <v>100.296</v>
       </c>
       <c r="C21">
-        <v>0.598</v>
+        <v>0.554</v>
       </c>
       <c r="D21">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E21">
-        <v>98.70999999999999</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="F21">
-        <v>101.057</v>
+        <v>101.383</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>16.698</v>
+        <v>16.446</v>
       </c>
       <c r="C22">
-        <v>0.534</v>
+        <v>0.499</v>
       </c>
       <c r="D22">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E22">
-        <v>15.65</v>
+        <v>15.467</v>
       </c>
       <c r="F22">
-        <v>17.746</v>
+        <v>17.426</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>19.374</v>
+        <v>19.551</v>
       </c>
       <c r="C23">
-        <v>0.265</v>
+        <v>0.243</v>
       </c>
       <c r="D23">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>18.854</v>
+        <v>19.073</v>
       </c>
       <c r="F23">
-        <v>19.895</v>
+        <v>20.028</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>17.398</v>
+        <v>17.401</v>
       </c>
       <c r="C24">
-        <v>0.521</v>
+        <v>0.479</v>
       </c>
       <c r="D24">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>16.376</v>
+        <v>16.461</v>
       </c>
       <c r="F24">
-        <v>18.42</v>
+        <v>18.341</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>18.839</v>
+        <v>18.984</v>
       </c>
       <c r="C25">
-        <v>0.898</v>
+        <v>0.744</v>
       </c>
       <c r="D25">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E25">
-        <v>17.077</v>
+        <v>17.524</v>
       </c>
       <c r="F25">
-        <v>20.601</v>
+        <v>20.444</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>16.944</v>
+        <v>17.039</v>
       </c>
       <c r="C26">
-        <v>0.213</v>
+        <v>0.196</v>
       </c>
       <c r="D26">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E26">
-        <v>16.526</v>
+        <v>16.654</v>
       </c>
       <c r="F26">
-        <v>17.363</v>
+        <v>17.424</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>18.336</v>
+        <v>18.373</v>
       </c>
       <c r="C27">
-        <v>0.276</v>
+        <v>0.258</v>
       </c>
       <c r="D27">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E27">
-        <v>17.794</v>
+        <v>17.867</v>
       </c>
       <c r="F27">
-        <v>18.878</v>
+        <v>18.879</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>18.313</v>
+        <v>18.292</v>
       </c>
       <c r="C28">
-        <v>0.137</v>
+        <v>0.126</v>
       </c>
       <c r="D28">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E28">
-        <v>18.044</v>
+        <v>18.045</v>
       </c>
       <c r="F28">
-        <v>18.582</v>
+        <v>18.538</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>18.892</v>
+        <v>18.959</v>
       </c>
       <c r="C29">
-        <v>0.269</v>
+        <v>0.247</v>
       </c>
       <c r="D29">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E29">
-        <v>18.363</v>
+        <v>18.474</v>
       </c>
       <c r="F29">
-        <v>19.42</v>
+        <v>19.445</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>17.872</v>
+        <v>18.227</v>
       </c>
       <c r="C30">
-        <v>0.464</v>
+        <v>0.384</v>
       </c>
       <c r="D30">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E30">
-        <v>16.961</v>
+        <v>17.473</v>
       </c>
       <c r="F30">
-        <v>18.783</v>
+        <v>18.981</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1184,19 +1184,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>19.985</v>
+        <v>19.93</v>
       </c>
       <c r="C31">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="D31">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E31">
-        <v>19.768</v>
+        <v>19.731</v>
       </c>
       <c r="F31">
-        <v>20.201</v>
+        <v>20.129</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>43.65</v>
+        <v>43.81</v>
       </c>
       <c r="C32">
-        <v>0.446</v>
+        <v>0.42</v>
       </c>
       <c r="D32">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E32">
-        <v>42.774</v>
+        <v>42.986</v>
       </c>
       <c r="F32">
-        <v>44.526</v>
+        <v>44.634</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>43.474</v>
+        <v>43.491</v>
       </c>
       <c r="C33">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="D33">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E33">
-        <v>43.039</v>
+        <v>43.089</v>
       </c>
       <c r="F33">
-        <v>43.909</v>
+        <v>43.893</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>45.234</v>
+        <v>45.52</v>
       </c>
       <c r="C34">
-        <v>0.435</v>
+        <v>0.403</v>
       </c>
       <c r="D34">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E34">
-        <v>44.38</v>
+        <v>44.729</v>
       </c>
       <c r="F34">
-        <v>46.088</v>
+        <v>46.311</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>45.373</v>
+        <v>45.11</v>
       </c>
       <c r="C35">
-        <v>0.751</v>
+        <v>0.627</v>
       </c>
       <c r="D35">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E35">
-        <v>43.9</v>
+        <v>43.881</v>
       </c>
       <c r="F35">
-        <v>46.845</v>
+        <v>46.339</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>45.418</v>
+        <v>45.395</v>
       </c>
       <c r="C36">
-        <v>0.178</v>
+        <v>0.165</v>
       </c>
       <c r="D36">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E36">
-        <v>45.068</v>
+        <v>45.071</v>
       </c>
       <c r="F36">
-        <v>45.768</v>
+        <v>45.72</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>111.439</v>
+        <v>111.833</v>
       </c>
       <c r="C37">
-        <v>0.972</v>
+        <v>0.887</v>
       </c>
       <c r="D37">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E37">
-        <v>109.532</v>
+        <v>110.093</v>
       </c>
       <c r="F37">
-        <v>113.347</v>
+        <v>113.573</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>118.881</v>
+        <v>118.845</v>
       </c>
       <c r="C38">
-        <v>0.483</v>
+        <v>0.432</v>
       </c>
       <c r="D38">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E38">
-        <v>117.933</v>
+        <v>117.997</v>
       </c>
       <c r="F38">
-        <v>119.829</v>
+        <v>119.693</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>115.144</v>
+        <v>116.333</v>
       </c>
       <c r="C39">
-        <v>0.948</v>
+        <v>0.851</v>
       </c>
       <c r="D39">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E39">
-        <v>113.284</v>
+        <v>114.664</v>
       </c>
       <c r="F39">
-        <v>117.004</v>
+        <v>118.003</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>115.596</v>
+        <v>115.726</v>
       </c>
       <c r="C40">
-        <v>1.635</v>
+        <v>1.322</v>
       </c>
       <c r="D40">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E40">
-        <v>112.389</v>
+        <v>113.132</v>
       </c>
       <c r="F40">
-        <v>118.804</v>
+        <v>118.319</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>116.204</v>
+        <v>116.373</v>
       </c>
       <c r="C41">
-        <v>0.388</v>
+        <v>0.349</v>
       </c>
       <c r="D41">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E41">
-        <v>115.442</v>
+        <v>115.689</v>
       </c>
       <c r="F41">
-        <v>116.966</v>
+        <v>117.058</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>70.643</v>
+        <v>71.01300000000001</v>
       </c>
       <c r="C42">
-        <v>1.109</v>
+        <v>1.016</v>
       </c>
       <c r="D42">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E42">
-        <v>68.467</v>
+        <v>69.021</v>
       </c>
       <c r="F42">
-        <v>72.819</v>
+        <v>73.005</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>80.678</v>
+        <v>80.45099999999999</v>
       </c>
       <c r="C43">
-        <v>0.551</v>
+        <v>0.495</v>
       </c>
       <c r="D43">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E43">
-        <v>79.596</v>
+        <v>79.48</v>
       </c>
       <c r="F43">
-        <v>81.759</v>
+        <v>81.422</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>72.68300000000001</v>
+        <v>73.83499999999999</v>
       </c>
       <c r="C44">
-        <v>1.082</v>
+        <v>0.974</v>
       </c>
       <c r="D44">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E44">
-        <v>70.56</v>
+        <v>71.92400000000001</v>
       </c>
       <c r="F44">
-        <v>74.80500000000001</v>
+        <v>75.746</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>73.505</v>
+        <v>73.996</v>
       </c>
       <c r="C45">
-        <v>1.866</v>
+        <v>1.514</v>
       </c>
       <c r="D45">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E45">
-        <v>69.846</v>
+        <v>71.027</v>
       </c>
       <c r="F45">
-        <v>77.164</v>
+        <v>76.965</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>72.631</v>
+        <v>73.086</v>
       </c>
       <c r="C46">
-        <v>0.443</v>
+        <v>0.399</v>
       </c>
       <c r="D46">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E46">
-        <v>71.762</v>
+        <v>72.30200000000001</v>
       </c>
       <c r="F46">
-        <v>73.501</v>
+        <v>73.869</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>151.652</v>
+        <v>151.819</v>
       </c>
       <c r="C47">
-        <v>1.294</v>
+        <v>1.235</v>
       </c>
       <c r="D47">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E47">
-        <v>149.115</v>
+        <v>149.396</v>
       </c>
       <c r="F47">
-        <v>154.19</v>
+        <v>154.241</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>158.543</v>
+        <v>158.626</v>
       </c>
       <c r="C48">
-        <v>0.643</v>
+        <v>0.602</v>
       </c>
       <c r="D48">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E48">
-        <v>157.282</v>
+        <v>157.445</v>
       </c>
       <c r="F48">
-        <v>159.804</v>
+        <v>159.807</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>153.329</v>
+        <v>154.316</v>
       </c>
       <c r="C49">
-        <v>1.262</v>
+        <v>1.185</v>
       </c>
       <c r="D49">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E49">
-        <v>150.854</v>
+        <v>151.991</v>
       </c>
       <c r="F49">
-        <v>155.804</v>
+        <v>156.64</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>151.539</v>
+        <v>153.133</v>
       </c>
       <c r="C50">
-        <v>2.176</v>
+        <v>1.841</v>
       </c>
       <c r="D50">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E50">
-        <v>147.272</v>
+        <v>149.522</v>
       </c>
       <c r="F50">
-        <v>155.806</v>
+        <v>156.744</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1724,19 +1724,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>153.936</v>
+        <v>154.532</v>
       </c>
       <c r="C51">
-        <v>0.517</v>
+        <v>0.486</v>
       </c>
       <c r="D51">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E51">
-        <v>152.923</v>
+        <v>153.579</v>
       </c>
       <c r="F51">
-        <v>154.95</v>
+        <v>155.484</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>281.226</v>
+        <v>281.723</v>
       </c>
       <c r="C52">
-        <v>1.372</v>
+        <v>1.302</v>
       </c>
       <c r="D52">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E52">
-        <v>278.535</v>
+        <v>279.17</v>
       </c>
       <c r="F52">
-        <v>283.918</v>
+        <v>284.277</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>289.247</v>
+        <v>289.374</v>
       </c>
       <c r="C53">
-        <v>0.6820000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="D53">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E53">
-        <v>287.91</v>
+        <v>288.129</v>
       </c>
       <c r="F53">
-        <v>290.585</v>
+        <v>290.619</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>281.654</v>
+        <v>281.905</v>
       </c>
       <c r="C54">
-        <v>1.338</v>
+        <v>1.249</v>
       </c>
       <c r="D54">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E54">
-        <v>279.029</v>
+        <v>279.455</v>
       </c>
       <c r="F54">
-        <v>284.278</v>
+        <v>284.356</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>280.516</v>
+        <v>282.612</v>
       </c>
       <c r="C55">
-        <v>2.307</v>
+        <v>1.941</v>
       </c>
       <c r="D55">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E55">
-        <v>275.99</v>
+        <v>278.806</v>
       </c>
       <c r="F55">
-        <v>285.042</v>
+        <v>286.419</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>282.108</v>
+        <v>282.394</v>
       </c>
       <c r="C56">
-        <v>0.548</v>
+        <v>0.512</v>
       </c>
       <c r="D56">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E56">
-        <v>281.033</v>
+        <v>281.39</v>
       </c>
       <c r="F56">
-        <v>283.183</v>
+        <v>283.398</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>147.408</v>
+        <v>147.574</v>
       </c>
       <c r="C57">
-        <v>0.68</v>
+        <v>0.643</v>
       </c>
       <c r="D57">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E57">
-        <v>146.074</v>
+        <v>146.313</v>
       </c>
       <c r="F57">
-        <v>148.741</v>
+        <v>148.834</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>148.92</v>
+        <v>149.106</v>
       </c>
       <c r="C58">
-        <v>0.338</v>
+        <v>0.313</v>
       </c>
       <c r="D58">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E58">
-        <v>148.258</v>
+        <v>148.492</v>
       </c>
       <c r="F58">
-        <v>149.583</v>
+        <v>149.721</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>146.844</v>
+        <v>147.395</v>
       </c>
       <c r="C59">
-        <v>0.663</v>
+        <v>0.617</v>
       </c>
       <c r="D59">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E59">
-        <v>145.543</v>
+        <v>146.186</v>
       </c>
       <c r="F59">
-        <v>148.144</v>
+        <v>148.604</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>146.813</v>
+        <v>147.712</v>
       </c>
       <c r="C60">
-        <v>1.143</v>
+        <v>0.958</v>
       </c>
       <c r="D60">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E60">
-        <v>144.571</v>
+        <v>145.833</v>
       </c>
       <c r="F60">
-        <v>149.055</v>
+        <v>149.59</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1994,19 +1994,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>146.262</v>
+        <v>146.407</v>
       </c>
       <c r="C61">
-        <v>0.272</v>
+        <v>0.253</v>
       </c>
       <c r="D61">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E61">
-        <v>145.729</v>
+        <v>145.911</v>
       </c>
       <c r="F61">
-        <v>146.795</v>
+        <v>146.902</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
